--- a/assets/design/WRLDC Databse.xlsx
+++ b/assets/design/WRLDC Databse.xlsx
@@ -1762,6 +1762,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D24"/>
@@ -9677,6 +9678,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
@@ -10555,6 +10557,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E38"/>
